--- a/xlsx/协调世界时_intext.xlsx
+++ b/xlsx/协调世界时_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
   <si>
     <t>协调世界时</t>
   </si>
@@ -29,7 +29,7 @@
     <t>原子时</t>
   </si>
   <si>
-    <t>政策_政策_美國_协调世界时</t>
+    <t>政策_政策_美国_协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%B0%BC%E6%B2%BB%E6%A0%87%E5%87%86%E6%97%B6%E9%97%B4</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_8601</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86</t>
@@ -89,19 +89,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E4%BF%A1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際電信聯盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E5%8E%86</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7%E6%96%B9%E7%A8%8B</t>
   </si>
   <si>
-    <t>線性方程</t>
+    <t>线性方程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%9C%B0%E7%90%83%E8%87%AA%E8%BD%AC%E6%9C%8D%E5%8A%A1</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>時間膨脹</t>
+    <t>时间膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A5%E6%84%9F</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%A8%99</t>
   </si>
   <si>
-    <t>時標</t>
+    <t>时标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E6%95%B0</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%88%9D%E5%AD%90%E5%8D%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>本初子午線</t>
+    <t>本初子午线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%A4%A9%E6%96%87%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%AB%E5%8E%9F%E5%AD%90%E9%90%98</t>
   </si>
   <si>
-    <t>銫原子鐘</t>
+    <t>铯原子钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E9%90%98</t>
   </si>
   <si>
-    <t>原子鐘</t>
+    <t>原子钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%99%82%E9%96%93%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>網絡時間協議</t>
+    <t>网络时间协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>南極條約</t>
+    <t>南极条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GMT</t>
@@ -425,19 +422,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE-%E5%8F%B2%E8%80%83%E7%89%B9%E5%8D%97%E6%A5%B5%E7%AB%99</t>
   </si>
   <si>
-    <t>阿蒙森-史考特南極站</t>
+    <t>阿蒙森-史考特南极站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5</t>
   </si>
   <si>
-    <t>北極</t>
+    <t>北极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%B5%B7%E5%9F%9F</t>
   </si>
   <si>
-    <t>經濟海域</t>
+    <t>经济海域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>標準時間</t>
+    <t>标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%82%E5%88%B6</t>
   </si>
   <si>
-    <t>夏時制</t>
+    <t>夏时制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E5%81%8F%E7%A7%BB%E9%87%8F</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/IERS%E5%8F%83%E8%80%83%E5%AD%90%E5%8D%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>IERS參考子午線</t>
+    <t>IERS参考子午线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
@@ -899,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8E%BB</t>
   </si>
   <si>
-    <t>過去</t>
+    <t>过去</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%9C%A8</t>
   </si>
   <si>
-    <t>現在</t>
+    <t>现在</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%81%86</t>
   </si>
   <si>
-    <t>永恆</t>
+    <t>永恒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E7%AE%AD%E5%A4%B4</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E5%B9%B4</t>
   </si>
   <si>
-    <t>銀河年</t>
+    <t>银河年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%86%AC%E7%AB%A0</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%90%98</t>
   </si>
   <si>
-    <t>分鐘</t>
+    <t>分钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BB</t>
@@ -1019,13 +1016,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83_(%E6%9B%86%E6%B3%95)</t>
   </si>
   <si>
-    <t>元 (曆法)</t>
+    <t>元 (历法)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80_(%E6%9B%86%E6%B3%95)</t>
   </si>
   <si>
-    <t>紀 (曆法)</t>
+    <t>纪 (历法)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%80</t>
@@ -1037,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0_(%E6%9B%86%E6%B3%95)</t>
   </si>
   <si>
-    <t>章 (曆法)</t>
+    <t>章 (历法)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%AD%B8%E5%B9%B4</t>
   </si>
   <si>
-    <t>回歸年</t>
+    <t>回归年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E8%BE%B0</t>
@@ -1067,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82_(%E5%8F%A4%E5%8D%B0%E5%BA%A6)</t>
   </si>
   <si>
-    <t>時 (古印度)</t>
+    <t>时 (古印度)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%88%E8%87%BE</t>
   </si>
   <si>
-    <t>須臾</t>
+    <t>须臾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E6%8C%87</t>
   </si>
   <si>
-    <t>彈指</t>
+    <t>弹指</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%B5</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8E%E9%82%A3</t>
   </si>
   <si>
-    <t>剎那</t>
+    <t>刹那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86</t>
@@ -1103,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9C%97%E5%85%8B%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>普朗克時間</t>
+    <t>普朗克时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E7%82%B9%E5%B9%B4</t>
@@ -1121,9 +1118,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E5%BD%92%E5%B9%B4</t>
   </si>
   <si>
-    <t>回归年</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%92%E6%98%9F%E5%B9%B4</t>
   </si>
   <si>
@@ -1169,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%9B%B8%E6%99%82</t>
   </si>
   <si>
-    <t>曆書時</t>
+    <t>历书时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%94%E6%9C%9B%E6%97%A5</t>
@@ -1181,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%A8%E6%99%82</t>
   </si>
   <si>
-    <t>民用時</t>
+    <t>民用时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%92%E6%98%9F%E6%97%B6</t>
@@ -1199,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%99%82</t>
   </si>
   <si>
-    <t>地球時</t>
+    <t>地球时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E5%AD%A6%E6%97%B6</t>
@@ -1211,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%99%82</t>
   </si>
   <si>
-    <t>原時</t>
+    <t>原时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E5%85%83</t>
   </si>
   <si>
-    <t>曆元</t>
+    <t>历元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%81%E5%B7%AE</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E6%99%82%E5%B7%AE</t>
   </si>
   <si>
-    <t>均時差</t>
+    <t>均时差</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%95%E6%97%A5%E5%8D%87</t>
@@ -1241,31 +1235,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%96%B9%E5%B9%B3%E6%99%82</t>
   </si>
   <si>
-    <t>地方平時</t>
+    <t>地方平时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%90%98</t>
   </si>
   <si>
-    <t>時鐘</t>
+    <t>时钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%9D%E5%A4%9C%E5%B9%B3%E5%88%86%E9%BB%9E</t>
   </si>
   <si>
-    <t>晝夜平分點</t>
+    <t>昼夜平分点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間地理學</t>
+    <t>时间地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間生物學</t>
+    <t>时间生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E5%AD%A6</t>
@@ -1277,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E7%A9%BA</t>
   </si>
   <si>
-    <t>時空</t>
+    <t>时空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>時間旅行</t>
+    <t>时间旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UNIX%E6%97%B6%E9%97%B4</t>
@@ -1301,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA%E5%B9%B4%E4%BB%A3</t>
   </si>
   <si>
-    <t>地質年代</t>
+    <t>地质年代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E4%BB%A3%E5%AD%A6</t>
@@ -1313,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%A8%81%E6%B2%BB%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>格林威治標準時間</t>
+    <t>格林威治标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BPM</t>
@@ -1331,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E7%B6%AD%E5%90%BE%E7%88%BE%E6%97%8F%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>新疆維吾爾族自治區</t>
+    <t>新疆维吾尔族自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CGPM</t>
@@ -2086,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2112,10 +2106,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2141,10 +2135,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -2199,10 +2193,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2228,10 +2222,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2257,10 +2251,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -2286,10 +2280,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -2315,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2344,10 +2338,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2373,10 +2367,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2402,10 +2396,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2431,10 +2425,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2460,10 +2454,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -2489,10 +2483,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>16</v>
@@ -2518,10 +2512,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2547,10 +2541,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2576,10 +2570,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -2605,10 +2599,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2634,10 +2628,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2663,10 +2657,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>66</v>
@@ -2692,10 +2686,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2721,10 +2715,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2750,10 +2744,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2779,10 +2773,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2808,10 +2802,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2837,10 +2831,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2866,10 +2860,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2895,10 +2889,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2924,10 +2918,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2953,10 +2947,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>14</v>
@@ -2982,10 +2976,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>14</v>
@@ -3011,10 +3005,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -3040,10 +3034,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3069,10 +3063,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3098,10 +3092,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3127,10 +3121,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3156,10 +3150,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3185,10 +3179,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3214,10 +3208,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3243,10 +3237,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3272,10 +3266,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>58</v>
@@ -3301,10 +3295,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3330,10 +3324,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3359,10 +3353,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3388,10 +3382,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3417,10 +3411,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3446,10 +3440,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3475,10 +3469,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3504,10 +3498,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3533,10 +3527,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3562,10 +3556,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3591,10 +3585,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3620,10 +3614,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3649,10 +3643,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3678,10 +3672,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3707,10 +3701,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3736,10 +3730,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>13</v>
@@ -3765,10 +3759,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3794,10 +3788,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3823,10 +3817,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -3852,10 +3846,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3881,10 +3875,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3910,10 +3904,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3939,10 +3933,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3968,10 +3962,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -3997,10 +3991,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4026,10 +4020,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4055,10 +4049,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4084,10 +4078,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4113,10 +4107,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4142,10 +4136,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4171,10 +4165,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4200,10 +4194,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4229,10 +4223,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4258,10 +4252,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4287,10 +4281,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4316,10 +4310,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4345,10 +4339,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4374,10 +4368,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4403,10 +4397,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4432,10 +4426,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4461,10 +4455,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>10</v>
@@ -4490,10 +4484,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4519,10 +4513,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4548,10 +4542,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4577,10 +4571,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4606,10 +4600,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4635,10 +4629,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4664,10 +4658,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4693,10 +4687,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4722,10 +4716,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4751,10 +4745,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4780,10 +4774,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4809,10 +4803,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4838,10 +4832,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4867,10 +4861,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4896,10 +4890,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4925,10 +4919,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4954,10 +4948,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4983,10 +4977,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5012,10 +5006,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5041,10 +5035,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5070,10 +5064,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5099,10 +5093,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5128,10 +5122,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5157,10 +5151,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5186,10 +5180,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5215,10 +5209,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5244,10 +5238,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5273,10 +5267,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5302,10 +5296,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5331,10 +5325,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5360,10 +5354,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5389,10 +5383,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5418,10 +5412,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5447,10 +5441,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5476,10 +5470,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5505,10 +5499,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5534,10 +5528,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5563,10 +5557,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5592,10 +5586,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5621,10 +5615,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5650,10 +5644,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5679,10 +5673,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5708,10 +5702,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5737,10 +5731,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5766,10 +5760,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5795,10 +5789,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5824,10 +5818,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5853,10 +5847,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5882,10 +5876,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5911,10 +5905,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5940,10 +5934,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5969,10 +5963,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5998,10 +5992,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>66</v>
@@ -6027,10 +6021,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -6056,10 +6050,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6085,10 +6079,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6114,10 +6108,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6143,10 +6137,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6172,10 +6166,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6201,10 +6195,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6230,10 +6224,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6259,10 +6253,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6288,10 +6282,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>43</v>
@@ -6317,10 +6311,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6346,10 +6340,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>46</v>
@@ -6375,10 +6369,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>26</v>
@@ -6404,10 +6398,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>17</v>
@@ -6433,10 +6427,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>6</v>
@@ -6462,10 +6456,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>157</v>
@@ -6491,10 +6485,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6520,10 +6514,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6549,10 +6543,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -6578,10 +6572,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6607,10 +6601,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6636,10 +6630,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>6</v>
@@ -6665,10 +6659,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6694,10 +6688,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6723,10 +6717,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6752,10 +6746,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6781,10 +6775,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6810,10 +6804,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>11</v>
@@ -6839,10 +6833,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>6</v>
@@ -6868,10 +6862,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6897,10 +6891,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6926,10 +6920,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6955,10 +6949,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -6984,10 +6978,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7013,10 +7007,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7042,10 +7036,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7071,10 +7065,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7100,10 +7094,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7129,10 +7123,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7158,10 +7152,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7187,10 +7181,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7216,10 +7210,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7245,10 +7239,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F191" t="s">
         <v>313</v>
-      </c>
-      <c r="F191" t="s">
-        <v>314</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7274,10 +7268,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>312</v>
+      </c>
+      <c r="F192" t="s">
         <v>313</v>
-      </c>
-      <c r="F192" t="s">
-        <v>314</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7303,10 +7297,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7332,10 +7326,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>312</v>
+      </c>
+      <c r="F194" t="s">
         <v>313</v>
-      </c>
-      <c r="F194" t="s">
-        <v>314</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7361,10 +7355,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7390,10 +7384,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -7419,10 +7413,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7448,10 +7442,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7477,10 +7471,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7506,10 +7500,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7535,10 +7529,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7564,10 +7558,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7593,10 +7587,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7622,10 +7616,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7651,10 +7645,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7680,10 +7674,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7709,10 +7703,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7738,10 +7732,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7767,10 +7761,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7796,10 +7790,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7825,10 +7819,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7854,10 +7848,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7883,10 +7877,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7912,10 +7906,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7941,10 +7935,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7970,10 +7964,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7999,10 +7993,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8028,10 +8022,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8057,10 +8051,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8086,10 +8080,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8115,10 +8109,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8144,10 +8138,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8173,10 +8167,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8202,10 +8196,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8231,10 +8225,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8260,10 +8254,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8289,10 +8283,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8318,10 +8312,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8347,10 +8341,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8376,10 +8370,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8405,10 +8399,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8434,10 +8428,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>11</v>

--- a/xlsx/协调世界时_intext.xlsx
+++ b/xlsx/协调世界时_intext.xlsx
@@ -29,7 +29,7 @@
     <t>原子时</t>
   </si>
   <si>
-    <t>政策_政策_美國_协调世界时</t>
+    <t>体育运动_体育运动_伊朗_协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E5%B0%BC%E6%B2%BB%E6%A0%87%E5%87%86%E6%97%B6%E9%97%B4</t>
